--- a/예비노래Table.xlsx
+++ b/예비노래Table.xlsx
@@ -5,23 +5,20 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\작업중\youtube_music\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\CSI-Vision\CSI-FrontOffice\youtube_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73579AAB-FEBD-4EFB-80E6-1BD539A6998F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A483DB1A-E7C1-433A-B4C4-D1252556A68E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{72783089-B790-4615-9BEE-5BC71D5E17AF}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{72783089-B790-4615-9BEE-5BC71D5E17AF}"/>
   </bookViews>
   <sheets>
     <sheet name="GUIDE" sheetId="3" r:id="rId1"/>
     <sheet name="TIME_TABLE" sheetId="1" r:id="rId2"/>
     <sheet name="추천목록" sheetId="2" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TIME_TABLE!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TIME_TABLE!$A$1:$C$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,20 +41,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
   <si>
     <t>시간</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>요청사항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"09:00"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://music.youtube.com/playlist?list=RDCLAK5uy_kKEOZ3x5ED4hNxb8lHXhOp5cHFW_CbwMk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -150,21 +139,6 @@
   </si>
   <si>
     <t>https://music.youtube.com/playlist?list=RDCLAK5uy_l6vMbvt5a7vKJnCyxdCIWXYGvQE8h5Tqg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기타</t>
-  </si>
-  <si>
-    <t>기타</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>추천목록 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기타 선택 시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -269,6 +243,10 @@
     <t>역대 팝 베스트</t>
   </si>
   <si>
+    <t>"09:00"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>"10:11"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -294,6 +272,32 @@
   </si>
   <si>
     <t>"18:00"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당충전 국내 댄스 음악</t>
+  </si>
+  <si>
+    <t>"18:30"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자지정</t>
+  </si>
+  <si>
+    <t>사용자지정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자지정 검색어/URL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1565,123 +1569,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="GUIDE"/>
-      <sheetName val="TIME_TABLE"/>
-      <sheetName val="추천목록"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>나지막한 보이스 팝/R&amp;B/힙합</v>
-          </cell>
-          <cell r="B2" t="str">
-            <v>https://music.youtube.com/playlist?list=RDCLAK5uy_kKEOZ3x5ED4hNxb8lHXhOp5cHFW_CbwMk</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>역대 팝 베스트</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>https://music.youtube.com/playlist?list=RDCLAK5uy_nHSqCJjDrW9HBhCNdF6tWPdnOMngOv0wA</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>기분 좋은 팝 히트곡</v>
-          </cell>
-          <cell r="B4" t="str">
-            <v>https://music.youtube.com/playlist?list=RDCLAK5uy_kY7Uomg8uSGAGuvMIKc3HsVg_ipocKTrE</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>당충전 국내 댄스 음악</v>
-          </cell>
-          <cell r="B5" t="str">
-            <v>https://music.youtube.com/playlist?list=RDCLAK5uy_nEOENcLJBr5ZWcX5KsRFqlkLp05vN23Yk</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>한국 발라드 뮤직 스테이션/경쾌한 음악/인기</v>
-          </cell>
-          <cell r="B6" t="str">
-            <v>https://music.youtube.com/playlist?list=RDATg-mbpY</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>힙한 아날로그 감성:로파이 비트</v>
-          </cell>
-          <cell r="B7" t="str">
-            <v>https://music.youtube.com/playlist?list=RDCLAK5uy_kb7EBi6y3GrtJri4_ZH56Ms786DFEimbM</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>느긋한 느낌의 컨트리 음악</v>
-          </cell>
-          <cell r="B8" t="str">
-            <v>https://music.youtube.com/playlist?list=RDCLAK5uy_kaf_YgdM_0fuv59B_ImJMRZG738-q9KJs</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>나지막한 보이스 팝/R&amp;B/힙합</v>
-          </cell>
-          <cell r="B9" t="str">
-            <v>https://music.youtube.com/playlist?list=RDCLAK5uy_kKEOZ3x5ED4hNxb8lHXhOp5cHFW_CbwMk</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>The Hits: 00s K-Pop</v>
-          </cell>
-          <cell r="B10" t="str">
-            <v>https://music.youtube.com/playlist?list=RDCLAK5uy_ltlzGKYlRekORMvbjNz7WRE_LHcWiBAGY</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>The Hits: 90년대 해외</v>
-          </cell>
-          <cell r="B11" t="str">
-            <v>https://music.youtube.com/playlist?list=RDCLAK5uy_nQkPLhMF6chdzKSlWdX8NHMrLVpdci-eU</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>80 - 90년대 컨트리 음악</v>
-          </cell>
-          <cell r="B12" t="str">
-            <v>https://music.youtube.com/playlist?list=RDCLAK5uy_l6vMbvt5a7vKJnCyxdCIWXYGvQE8h5Tqg</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>00년대 국내 발라드</v>
-          </cell>
-          <cell r="B13" t="str">
-            <v>https://music.youtube.com/playlist?list=RDCLAK5uy_khzJMzOMfZAw7x0dswMTl8QVBgr-yKnVw</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
@@ -2009,7 +1896,7 @@
   <sheetData>
     <row r="6" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -2030,15 +1917,15 @@
     </row>
     <row r="8" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C8" s="8" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="2:25" x14ac:dyDescent="0.3">
       <c r="S14" s="11" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="T14" s="12"/>
       <c r="U14" s="12"/>
@@ -2049,7 +1936,7 @@
     </row>
     <row r="16" spans="2:25" x14ac:dyDescent="0.3">
       <c r="S16" s="11" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="T16" s="12"/>
       <c r="U16" s="12"/>
@@ -2063,7 +1950,7 @@
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B18" s="13" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -2074,7 +1961,7 @@
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B19" s="13" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -2085,7 +1972,7 @@
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B22" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -2106,12 +1993,12 @@
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.3">
       <c r="Q24" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B40" s="9" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -2140,153 +2027,122 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E85986C6-91E1-438A-94F5-8F0AB99E16BA}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="91.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="77.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="77.375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="str">
-        <f>IFERROR(VLOOKUP($C2,[1]추천목록!$A$2:$B$1048576,2,0),IF($D2="","",$D2))</f>
-        <v>https://music.youtube.com/playlist?list=RDCLAK5uy_kKEOZ3x5ED4hNxb8lHXhOp5cHFW_CbwMk</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B3" t="str">
-        <f>IFERROR(VLOOKUP($C3,[1]추천목록!$A$2:$B$1048576,2,0),IF($D3="","",$D3))</f>
-        <v>https://music.youtube.com/playlist?list=RDCLAK5uy_kY7Uomg8uSGAGuvMIKc3HsVg_ipocKTrE</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="B8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B4" t="str">
-        <f>IFERROR(VLOOKUP($C4,[1]추천목록!$A$2:$B$1048576,2,0),IF($D4="","",$D4))</f>
-        <v>https://music.youtube.com/playlist?list=RDATg-mbpY</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="B9" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="B5" t="str">
-        <f>IFERROR(VLOOKUP($C5,[1]추천목록!$A$2:$B$1048576,2,0),IF($D5="","",$D5))</f>
-        <v>https://music.youtube.com/playlist?list=RDCLAK5uy_kaf_YgdM_0fuv59B_ImJMRZG738-q9KJs</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" t="str">
-        <f>IFERROR(VLOOKUP($C6,[1]추천목록!$A$2:$B$1048576,2,0),IF($D6="","",$D6))</f>
-        <v>최유리 숲</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" t="str">
-        <f>IFERROR(VLOOKUP($C7,[1]추천목록!$A$2:$B$1048576,2,0),IF($D7="","",$D7))</f>
-        <v>https://music.youtube.com/playlist?list=RDCLAK5uy_ltlzGKYlRekORMvbjNz7WRE_LHcWiBAGY</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" t="str">
-        <f>IFERROR(VLOOKUP($C8,[1]추천목록!$A$2:$B$1048576,2,0),IF($D8="","",$D8))</f>
-        <v>https://music.youtube.com/watch?v=muiacgAvm3g&amp;list=RDAMVMmuiacgAvm3g</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" t="str">
-        <f>IFERROR(VLOOKUP($C9,[1]추천목록!$A$2:$B$1048576,2,0),IF($D9="","",$D9))</f>
-        <v>https://music.youtube.com/playlist?list=RDCLAK5uy_nHSqCJjDrW9HBhCNdF6tWPdnOMngOv0wA</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection deleteRows="0" sort="0" autoFilter="0"/>
-  <autoFilter ref="A1:D1" xr:uid="{E85986C6-91E1-438A-94F5-8F0AB99E16BA}"/>
+  <autoFilter ref="A1:C8" xr:uid="{E85986C6-91E1-438A-94F5-8F0AB99E16BA}"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="포맷 오류" error="문자열만 입력하세요" sqref="D2:D1048576" xr:uid="{9A8A3095-5EC9-470A-9208-7514CA9EA615}">
-      <formula1>ISNUMBER($D2)=FALSE</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="포맷 오류" error="함수를 복사해서 쓰시오" sqref="B2:B1048576" xr:uid="{496C9563-2271-47C6-B024-8B99E4E11290}">
-      <formula1>ISNUMBER(SEARCH("VLOOKUP",$B2))</formula1>
+  <dataValidations count="2">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="포맷 오류" error="문자열만 입력하세요" sqref="C2:C1048576" xr:uid="{9A8A3095-5EC9-470A-9208-7514CA9EA615}">
+      <formula1>ISNUMBER($C2)=FALSE</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="포맷 오류" error="ex) &quot;09:00&quot; 이나 &quot;16:34&quot;_x000a__x000a_주의사항) &quot;, : 를 빠뜨리지 말것" sqref="A2:A1048576" xr:uid="{0FDF562D-E45E-483F-9825-26A83A4E7CA0}">
       <formula1>AND(LEFT($A2)=CHAR(34), RIGHT($A2)=CHAR(34), LEN($A2)=7, MID($A2,4,1)=":")</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D8" r:id="rId1" xr:uid="{42CF0A25-858C-48B7-98B5-4E1F1978DB51}"/>
+    <hyperlink ref="C8" r:id="rId1" xr:uid="{0CB22390-B24C-412E-8369-714B49E4D413}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -2296,7 +2152,7 @@
           <x14:formula1>
             <xm:f>추천목록!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>C10:C1048576</xm:sqref>
+          <xm:sqref>B2:B1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2306,10 +2162,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4C2B86B-8828-4649-BC1D-FBF04B97307D}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2319,126 +2175,140 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>29</v>
+      <c r="A1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>40</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="포맷 오류" error="https://music.youtube.com 을 포함하여 작성하시오." sqref="B1:B1048576" xr:uid="{35C318EC-5AE9-430D-89DB-60F5CC305791}">
-      <formula1>OR(ISNUMBER(SEARCH("https://music.youtube.com", $B1)), $B1="")</formula1>
+  <dataValidations count="3">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="포맷 오류" error="https://music.youtube.com 을 포함하여 작성하시오." sqref="B5:B9 B1:B2 B11:B1048576" xr:uid="{49AF0F29-D09D-4CB3-A475-5711E62B887F}">
+      <formula1>OR(ISNUMBER(SEARCH("https://music.youtube.com", $B2)), $B2="")</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="포맷 오류" error="https://music.youtube.com 을 포함하여 작성하시오." sqref="B10" xr:uid="{E0807F28-FD96-4C58-B036-7F01E22F669C}">
+      <formula1>OR(ISNUMBER(SEARCH("https://music.youtube.com", #REF!)), #REF!="")</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="포맷 오류" error="https://music.youtube.com 을 포함하여 작성하시오." sqref="B3:B4" xr:uid="{F43C3DE7-5DD1-410D-A6EA-9484C4DA0763}">
+      <formula1>OR(ISNUMBER(SEARCH("https://music.youtube.com", $B5)), $B5="")</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{67D66390-086B-4129-A478-BEB3AF0881A7}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{CF699F81-9B5C-42F1-955E-0922254ADA00}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{56B2D35A-12E1-44EF-8B6C-9FD1EC92ACD5}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{F8709EFB-382F-4952-80BE-DC7AAD8382E5}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{3DC6C167-D350-4192-B946-E22529000688}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{0ECDC789-4E38-4945-A6C3-E48DDECDCDF9}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{DF4FACCE-E551-425A-86CC-EC549F9CAC25}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{CF33A5EC-362D-4BEE-83C6-145F41B31561}"/>
-    <hyperlink ref="B10" r:id="rId9" xr:uid="{312BD2FB-002E-4D54-9A42-11360CF54688}"/>
-    <hyperlink ref="B11" r:id="rId10" xr:uid="{3C88792B-33D5-443C-B914-6B1D9B03B885}"/>
-    <hyperlink ref="B12" r:id="rId11" xr:uid="{94663B0C-7D94-461C-8562-EEFF73EC10F3}"/>
-    <hyperlink ref="B13" r:id="rId12" xr:uid="{9AFA83EE-0771-4C85-9183-D2EEBD52F54E}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{67D66390-086B-4129-A478-BEB3AF0881A7}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{CF699F81-9B5C-42F1-955E-0922254ADA00}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{56B2D35A-12E1-44EF-8B6C-9FD1EC92ACD5}"/>
+    <hyperlink ref="B7" r:id="rId4" xr:uid="{F8709EFB-382F-4952-80BE-DC7AAD8382E5}"/>
+    <hyperlink ref="B8" r:id="rId5" xr:uid="{3DC6C167-D350-4192-B946-E22529000688}"/>
+    <hyperlink ref="B9" r:id="rId6" xr:uid="{0ECDC789-4E38-4945-A6C3-E48DDECDCDF9}"/>
+    <hyperlink ref="B10" r:id="rId7" xr:uid="{DF4FACCE-E551-425A-86CC-EC549F9CAC25}"/>
+    <hyperlink ref="B11" r:id="rId8" xr:uid="{312BD2FB-002E-4D54-9A42-11360CF54688}"/>
+    <hyperlink ref="B12" r:id="rId9" xr:uid="{3C88792B-33D5-443C-B914-6B1D9B03B885}"/>
+    <hyperlink ref="B13" r:id="rId10" xr:uid="{94663B0C-7D94-461C-8562-EEFF73EC10F3}"/>
+    <hyperlink ref="B14" r:id="rId11" xr:uid="{9AFA83EE-0771-4C85-9183-D2EEBD52F54E}"/>
+    <hyperlink ref="B4" r:id="rId12" xr:uid="{D3F5C012-CABE-4EE6-92B8-721E2EF4E107}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
